--- a/siteGr6/Lunettes.xlsx
+++ b/siteGr6/Lunettes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Remi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Remi/code/Formation/Groupe6/siteGr6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3512828C-3176-214A-B104-A6A6FA56BFFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDABDEA-B452-1442-9767-612C313EE250}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39860" yWindow="460" windowWidth="28040" windowHeight="16640" xr2:uid="{070CD94A-0D12-4E4A-B43D-DD00BAFEF55C}"/>
+    <workbookView xWindow="39160" yWindow="460" windowWidth="28040" windowHeight="16640" xr2:uid="{070CD94A-0D12-4E4A-B43D-DD00BAFEF55C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>client</t>
   </si>
@@ -90,9 +90,6 @@
     <t>(1,1)</t>
   </si>
   <si>
-    <t>TabFacLun</t>
-  </si>
-  <si>
     <t>prenomClient</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t>TabBankClient</t>
+  </si>
+  <si>
+    <t>(0,n)</t>
   </si>
 </sst>
 </file>
@@ -202,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,6 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,7 +813,7 @@
   <dimension ref="A3:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -870,7 +871,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>18</v>
@@ -881,20 +882,20 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -906,22 +907,16 @@
       <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E12" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E13" s="10"/>
       <c r="J13" s="5" t="s">
         <v>12</v>
       </c>
@@ -939,7 +934,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>17</v>
@@ -955,20 +950,20 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>1</v>

--- a/siteGr6/Lunettes.xlsx
+++ b/siteGr6/Lunettes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Remi/code/Formation/Groupe6/siteGr6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDABDEA-B452-1442-9767-612C313EE250}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3AEDFD-C446-2540-80EB-3E9050378054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39160" yWindow="460" windowWidth="28040" windowHeight="16640" xr2:uid="{070CD94A-0D12-4E4A-B43D-DD00BAFEF55C}"/>
   </bookViews>
@@ -458,15 +458,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
+      <xdr:colOff>838200</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -481,8 +481,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="863600" y="2070100"/>
-          <a:ext cx="1689100" cy="1193800"/>
+          <a:off x="838200" y="2070100"/>
+          <a:ext cx="1714500" cy="1625600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -813,7 +813,7 @@
   <dimension ref="A3:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -824,7 +824,7 @@
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,7 +835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -852,7 +852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -869,7 +869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
@@ -880,7 +880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
@@ -888,43 +888,37 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E13" s="10"/>
       <c r="J13" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I14" t="s">
         <v>19</v>
       </c>
@@ -932,49 +926,55 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
-        <v>26</v>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>19</v>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>25</v>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
+      <c r="A18" t="s">
+        <v>19</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>27</v>
+      <c r="A19" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E20" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E21" s="3" t="s">
         <v>6</v>
       </c>

--- a/siteGr6/Lunettes.xlsx
+++ b/siteGr6/Lunettes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Remi/code/Formation/Groupe6/siteGr6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Remi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3AEDFD-C446-2540-80EB-3E9050378054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF95022-61A3-F147-8ED9-2C015E295DC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39160" yWindow="460" windowWidth="28040" windowHeight="16640" xr2:uid="{070CD94A-0D12-4E4A-B43D-DD00BAFEF55C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" xr2:uid="{070CD94A-0D12-4E4A-B43D-DD00BAFEF55C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>client</t>
   </si>
   <si>
-    <t>Lunettes</t>
-  </si>
-  <si>
-    <t>Facture</t>
-  </si>
-  <si>
     <t>idClient</t>
   </si>
   <si>
@@ -45,9 +39,6 @@
     <t>idLunettes</t>
   </si>
   <si>
-    <t>typeLunettes</t>
-  </si>
-  <si>
     <t>dateFacture</t>
   </si>
   <si>
@@ -115,6 +106,30 @@
   </si>
   <si>
     <t>(0,n)</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>téléphone</t>
+  </si>
+  <si>
+    <t>Facture (panier)</t>
+  </si>
+  <si>
+    <t>quantité</t>
+  </si>
+  <si>
+    <t>Lunettes (produit)</t>
+  </si>
+  <si>
+    <t>idGenre</t>
+  </si>
+  <si>
+    <t>nomGenre</t>
+  </si>
+  <si>
+    <t>Genre (Type)</t>
   </si>
 </sst>
 </file>
@@ -202,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,6 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -294,13 +310,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1130300</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -349,13 +365,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -459,13 +475,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -483,6 +499,61 @@
         <a:xfrm flipV="1">
           <a:off x="838200" y="2070100"/>
           <a:ext cx="1714500" cy="1625600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5359</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>16076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>26793</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>5358</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Connecteur droit 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A35FF1A8-23AC-F84D-860D-0DED24D65E9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7443165" y="5106793"/>
+          <a:ext cx="3322362" cy="396540"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -810,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653057D0-1188-2E40-A813-820B58362015}">
-  <dimension ref="A3:J25"/>
+  <dimension ref="A3:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -829,177 +900,212 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="J6" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E15" s="10"/>
+      <c r="J15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E16" s="10"/>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E13" s="10"/>
-      <c r="J13" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="E23" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E22" s="3" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E23" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E25" s="4" t="s">
-        <v>18</v>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J28" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
